--- a/EmployeePayroll.xlsx
+++ b/EmployeePayroll.xlsx
@@ -2,30 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/shital-kantilal_wadile_capgemini_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="8_{8791B0A1-DFA0-4D5C-9288-90D6070A8755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A69BC5E4-388A-4F1C-8F21-C824944F88C4}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="8_{8791B0A1-DFA0-4D5C-9288-90D6070A8755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{329D7E01-20C0-496F-8219-69EA7D5D054C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F98E82B0-B575-4C03-9C1A-82EA37D308FF}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="3" xr2:uid="{F98E82B0-B575-4C03-9C1A-82EA37D308FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Transpose" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Transpose" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$M$5:$N$11</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="1">Sheet1!$L$14:$L$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$R$5:$S$11</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="3">Sheet1!$Q$14:$Q$15</definedName>
     <definedName name="DataTable">EmployeeTable[]</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">Sheet1!$K$22:$N$22</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="3">Sheet1!$P$22:$S$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="87">
   <si>
     <t>LastName</t>
   </si>
@@ -262,6 +264,75 @@
   <si>
     <t>countblank</t>
   </si>
+  <si>
+    <t>Xlookup</t>
+  </si>
+  <si>
+    <t>Concate</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Shital</t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Sum of Total Amount</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +341,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +370,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,8 +409,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -377,11 +467,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -405,11 +606,25 @@
     <xf numFmtId="16" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
@@ -421,6 +636,12 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
@@ -557,7 +778,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$10</c:f>
+              <c:f>Sheet1!$V$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -636,9 +857,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$P$11:$P$28</c:f>
+              <c:f>Sheet1!$U$11:$U$29</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>baker</c:v>
                 </c:pt>
@@ -673,21 +894,24 @@
                   <c:v>penfold</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Shital</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>smith</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>trenton</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>underhill</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>velinda</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>westerfield</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>young</c:v>
                 </c:pt>
               </c:strCache>
@@ -695,10 +919,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$11:$Q$28</c:f>
+              <c:f>Sheet1!$V$11:$V$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>14.2</c:v>
                 </c:pt>
@@ -733,21 +957,24 @@
                   <c:v>13.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>6.9</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>14.7</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>10.1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1268,6 +1495,7 @@
           <c:dPt>
             <c:idx val="7"/>
             <c:bubble3D val="0"/>
+            <c:explosion val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
@@ -1487,7 +1715,6 @@
           <c:dPt>
             <c:idx val="15"/>
             <c:bubble3D val="0"/>
-            <c:explosion val="2"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4">
@@ -1538,6 +1765,34 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000021-C086-4970-8CC8-14F634211C7E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-2770-4D49-937F-5907FDF16E70}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1599,113 +1854,119 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$3:$B$19</c:f>
+              <c:f>Sheet1!$A$3:$B$20</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>jon</c:v>
+                    <c:v>tom</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>glenda</c:v>
+                    <c:v>karen</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>ron</c:v>
+                    <c:v>chandra</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>wendy</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>glenda</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>linda</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>jon</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>trent</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>bill</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>ron</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>sandy</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>paul</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>tom</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>nancy</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>karen</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>dennis</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>sandy</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>linda</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>olivia</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>blessing</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>chandra</c:v>
+                    <c:v>genesis</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>bill</c:v>
+                    <c:v>nancy</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>trent</c:v>
+                    <c:v>dennis</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>genesis</c:v>
+                    <c:v>olivia</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>dennis</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Kern</c:v>
+                    <c:v>baker</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>howard</c:v>
+                    <c:v>carnehan</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>o'donald</c:v>
+                    <c:v>engleheart</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>herndandez</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>howard</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>islington</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Kern</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mann</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>norman</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>o'donald</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>penfold</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>smith</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>baker</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>velinda</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>carnehan</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>westerfield</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>penfold</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>islington</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>young</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>trenton</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>engleheart</c:v>
+                    <c:v>underhill</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>norman</c:v>
+                    <c:v>velinda</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>mann</c:v>
+                    <c:v>westerfield</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>underhill</c:v>
+                    <c:v>young</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Shital</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1713,60 +1974,63 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$19</c:f>
+              <c:f>Sheet1!$C$3:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>15.9</c:v>
+                  <c:v>14.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.1</c:v>
+                  <c:v>8.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>6.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.44</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.2</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30</c:v>
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1786,7 +2050,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>01-Jan</c:v>
+                  <c:v>Age</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2240,6 +2504,34 @@
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000043-C086-4970-8CC8-14F634211C7E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-2770-4D49-937F-5907FDF16E70}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2301,113 +2593,119 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$3:$B$19</c:f>
+              <c:f>Sheet1!$A$3:$B$20</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>jon</c:v>
+                    <c:v>tom</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>glenda</c:v>
+                    <c:v>karen</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>ron</c:v>
+                    <c:v>chandra</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>wendy</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>glenda</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>linda</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>jon</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>trent</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>bill</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>ron</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>sandy</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>paul</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>tom</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>nancy</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>karen</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>dennis</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>sandy</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>linda</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>olivia</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>blessing</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>chandra</c:v>
+                    <c:v>genesis</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>bill</c:v>
+                    <c:v>nancy</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>trent</c:v>
+                    <c:v>dennis</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>genesis</c:v>
+                    <c:v>olivia</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>dennis</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Kern</c:v>
+                    <c:v>baker</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>howard</c:v>
+                    <c:v>carnehan</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>o'donald</c:v>
+                    <c:v>engleheart</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>herndandez</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>howard</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>islington</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Kern</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mann</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>norman</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>o'donald</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>penfold</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>smith</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>baker</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>velinda</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>carnehan</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>westerfield</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>penfold</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>islington</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>young</c:v>
                   </c:pt>
                   <c:pt idx="12">
                     <c:v>trenton</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>engleheart</c:v>
+                    <c:v>underhill</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>norman</c:v>
+                    <c:v>velinda</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>mann</c:v>
+                    <c:v>westerfield</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>underhill</c:v>
+                    <c:v>young</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Shital</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2415,60 +2713,63 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$19</c:f>
+              <c:f>Sheet1!$D$3:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>39</c:v>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,6 +2777,2962 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-56C0-41A2-A961-6C820AC49760}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Country</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$B$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tom</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>karen</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>chandra</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>wendy</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>glenda</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>linda</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>jon</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>trent</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>bill</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>ron</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>sandy</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>paul</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>blessing</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>genesis</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>nancy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>dennis</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>olivia</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>dennis</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>baker</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>carnehan</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>engleheart</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>herndandez</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>howard</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>islington</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Kern</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mann</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>norman</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>o'donald</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>penfold</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>smith</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>trenton</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>underhill</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>velinda</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>westerfield</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>young</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Shital</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000044-E53E-48E5-9101-28C88C58D92A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000071-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000073-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000075-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000077-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000079-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007B-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007D-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007F-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000081-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000083-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000085-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000087-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000089-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008B-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008D-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008F-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$B$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tom</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>karen</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>chandra</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>wendy</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>glenda</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>linda</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>jon</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>trent</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>bill</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>ron</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>sandy</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>paul</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>blessing</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>genesis</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>nancy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>dennis</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>olivia</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>dennis</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>baker</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>carnehan</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>engleheart</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>herndandez</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>howard</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>islington</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Kern</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mann</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>norman</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>o'donald</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>penfold</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>smith</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>trenton</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>underhill</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>velinda</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>westerfield</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>young</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Shital</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000045-E53E-48E5-9101-28C88C58D92A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000091-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000093-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000095-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000097-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000099-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009B-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009D-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000009F-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A1-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A3-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A5-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A7-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000A9-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AB-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AD-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000AF-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B1-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B3-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$B$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tom</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>karen</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>chandra</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>wendy</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>glenda</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>linda</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>jon</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>trent</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>bill</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>ron</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>sandy</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>paul</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>blessing</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>genesis</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>nancy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>dennis</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>olivia</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>dennis</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>baker</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>carnehan</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>engleheart</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>herndandez</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>howard</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>islington</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Kern</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mann</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>norman</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>o'donald</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>penfold</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>smith</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>trenton</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>underhill</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>velinda</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>westerfield</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>young</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Shital</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.60000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>113.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000046-E53E-48E5-9101-28C88C58D92A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Column1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B5-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B7-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000B9-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BB-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BD-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000BF-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C1-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C3-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C5-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C7-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000C9-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000CB-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000CD-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000CF-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D1-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D3-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D5-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{000000D7-2770-4D49-937F-5907FDF16E70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$3:$B$20</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>tom</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>karen</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>chandra</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>wendy</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>glenda</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>linda</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>jon</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>trent</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>bill</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>ron</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>sandy</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>paul</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>blessing</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>genesis</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>nancy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>dennis</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>olivia</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>dennis</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>baker</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>carnehan</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>engleheart</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>herndandez</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>howard</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>islington</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Kern</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mann</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>norman</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>o'donald</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>penfold</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>smith</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>trenton</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>underhill</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>velinda</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>westerfield</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>young</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Shital</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000047-E53E-48E5-9101-28C88C58D92A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2498,6 +5755,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3648,13 +6936,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>159307</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>85001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>347579</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>70964</xdr:rowOff>
@@ -3685,15 +6973,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>167105</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>96141</xdr:rowOff>
+      <xdr:colOff>289648</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>146273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238403</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>82104</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>360946</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>132235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3722,68 +7010,102 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wadile, Shital Kantilal" refreshedDate="45253.458844444445" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{99A37CB9-8995-4D30-8539-3E039C6C14D6}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Wadile, Shital Kantilal" refreshedDate="45257.701953819444" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="18" xr:uid="{99A37CB9-8995-4D30-8539-3E039C6C14D6}">
   <cacheSource type="worksheet">
     <worksheetSource name="EmployeeTable"/>
   </cacheSource>
-  <cacheFields count="4">
+  <cacheFields count="7">
     <cacheField name="LastName" numFmtId="0">
-      <sharedItems count="17">
+      <sharedItems count="18">
+        <s v="baker"/>
+        <s v="carnehan"/>
+        <s v="engleheart"/>
+        <s v="herndandez"/>
+        <s v="howard"/>
+        <s v="islington"/>
         <s v="Kern"/>
-        <s v="howard"/>
+        <s v="mann"/>
+        <s v="norman"/>
         <s v="o'donald"/>
-        <s v="herndandez"/>
+        <s v="penfold"/>
         <s v="smith"/>
-        <s v="baker"/>
+        <s v="trenton"/>
+        <s v="underhill"/>
         <s v="velinda"/>
-        <s v="carnehan"/>
         <s v="westerfield"/>
-        <s v="penfold"/>
-        <s v="islington"/>
         <s v="young"/>
-        <s v="trenton"/>
-        <s v="engleheart"/>
-        <s v="norman"/>
-        <s v="mann"/>
-        <s v="underhill"/>
+        <s v="Shital"/>
       </sharedItems>
     </cacheField>
     <cacheField name="FirstName" numFmtId="0">
       <sharedItems count="17">
+        <s v="tom"/>
+        <s v="karen"/>
+        <s v="chandra"/>
+        <s v="wendy"/>
+        <s v="glenda"/>
+        <s v="linda"/>
         <s v="jon"/>
-        <s v="glenda"/>
+        <s v="trent"/>
+        <s v="bill"/>
         <s v="ron"/>
-        <s v="wendy"/>
+        <s v="sandy"/>
         <s v="paul"/>
-        <s v="tom"/>
+        <s v="blessing"/>
+        <s v="genesis"/>
         <s v="nancy"/>
-        <s v="karen"/>
         <s v="dennis"/>
-        <s v="sandy"/>
-        <s v="linda"/>
         <s v="olivia"/>
-        <s v="blessing"/>
-        <s v="chandra"/>
-        <s v="bill"/>
-        <s v="trent"/>
-        <s v="genesis"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Hourly wege" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.9" maxValue="45"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6.9" maxValue="45" count="16">
+        <n v="14.2"/>
+        <n v="17.5"/>
+        <n v="8.44"/>
+        <n v="19.100000000000001"/>
+        <n v="10"/>
+        <n v="11.2"/>
+        <n v="15.9"/>
+        <n v="45"/>
+        <n v="22.1"/>
+        <n v="13.9"/>
+        <n v="6.9"/>
+        <n v="9"/>
+        <n v="30"/>
+        <n v="18"/>
+        <n v="14.7"/>
+        <n v="10.1"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="01-Jan" numFmtId="0">
+    <cacheField name="Age" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="29" maxValue="55" count="9">
+        <n v="44"/>
+        <n v="33"/>
         <n v="40"/>
+        <n v="41"/>
         <n v="42"/>
         <n v="49"/>
-        <n v="41"/>
         <n v="39"/>
-        <n v="44"/>
         <n v="55"/>
-        <n v="33"/>
         <n v="29"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="Country" numFmtId="0">
+      <sharedItems count="6">
+        <s v="India"/>
+        <s v="US"/>
+        <s v="Canada"/>
+        <s v="UK"/>
+        <s v="Italy"/>
+        <s v="Germany"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Hour" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="9"/>
+    </cacheField>
+    <cacheField name="Total Amount" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="20.700000000000003" maxValue="315"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3795,180 +7117,405 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="17">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="18">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="15.9"/>
     <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="28.4"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="10"/>
     <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="70"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="22.1"/>
     <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="42.199999999999996"/>
   </r>
   <r>
     <x v="3"/>
     <x v="3"/>
-    <n v="19.100000000000001"/>
     <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="6"/>
+    <n v="114.60000000000001"/>
   </r>
   <r>
     <x v="4"/>
     <x v="4"/>
-    <n v="6.9"/>
     <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="7"/>
+    <n v="70"/>
   </r>
   <r>
     <x v="5"/>
     <x v="5"/>
-    <n v="14.2"/>
     <x v="5"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="3"/>
+    <n v="33.599999999999994"/>
   </r>
   <r>
     <x v="6"/>
     <x v="6"/>
-    <n v="18"/>
     <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="95.4"/>
   </r>
   <r>
     <x v="7"/>
     <x v="7"/>
-    <n v="17.5"/>
     <x v="7"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="7"/>
+    <n v="315"/>
   </r>
   <r>
     <x v="8"/>
     <x v="8"/>
-    <n v="14.7"/>
-    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="113.6"/>
   </r>
   <r>
     <x v="9"/>
     <x v="9"/>
-    <n v="13.9"/>
-    <x v="0"/>
+    <x v="8"/>
+    <x v="5"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="88.4"/>
   </r>
   <r>
     <x v="10"/>
     <x v="10"/>
-    <n v="11.2"/>
-    <x v="0"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="6"/>
+    <n v="83.4"/>
   </r>
   <r>
     <x v="11"/>
     <x v="11"/>
-    <n v="10.1"/>
-    <x v="0"/>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="5"/>
+    <n v="3"/>
+    <n v="20.700000000000003"/>
   </r>
   <r>
     <x v="12"/>
     <x v="12"/>
-    <n v="9"/>
-    <x v="1"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="6"/>
+    <n v="54"/>
   </r>
   <r>
     <x v="13"/>
     <x v="13"/>
-    <n v="8.44"/>
-    <x v="0"/>
+    <x v="12"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="8"/>
+    <n v="240"/>
   </r>
   <r>
     <x v="14"/>
     <x v="14"/>
-    <n v="14.2"/>
-    <x v="0"/>
+    <x v="13"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="9"/>
+    <n v="162"/>
   </r>
   <r>
     <x v="15"/>
     <x v="15"/>
-    <n v="45"/>
+    <x v="14"/>
+    <x v="8"/>
     <x v="3"/>
+    <n v="2"/>
+    <n v="29.4"/>
   </r>
   <r>
     <x v="16"/>
     <x v="16"/>
-    <n v="30"/>
+    <x v="15"/>
+    <x v="2"/>
     <x v="4"/>
+    <n v="4"/>
+    <n v="40.4"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="8"/>
+    <x v="5"/>
+    <n v="6"/>
+    <n v="60.599999999999994"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15B4AFA9-9910-430A-9E58-7D3D2060E959}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="P10:Q28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65D21929-FCE6-4963-941C-4AD8C4866CE2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3B09E00-1386-462C-8C23-8DA712DBEFF9}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:H20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
       <items count="18">
+        <item x="8"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="1"/>
         <item x="5"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="3"/>
-        <item x="1"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="9"/>
         <item x="10"/>
         <item x="0"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="18">
-        <item x="14"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="16"/>
-        <item x="1"/>
-        <item x="0"/>
         <item x="7"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="15"/>
         <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="10">
+    <pivotField axis="axisPage" numFmtId="164" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="17">
+        <item x="10"/>
+        <item x="2"/>
+        <item h="1" x="11"/>
+        <item h="1" x="4"/>
+        <item h="1" x="15"/>
+        <item h="1" x="5"/>
+        <item h="1" x="9"/>
+        <item h="1" x="0"/>
+        <item h="1" x="14"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="3"/>
         <item x="8"/>
+        <item x="12"/>
         <item x="7"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="10">
+        <item x="8"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="2"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Total Amount" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15B4AFA9-9910-430A-9E58-7D3D2060E959}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="U10:V29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="19">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="19">
     <i>
       <x/>
     </i>
@@ -4020,6 +7567,9 @@
     <i>
       <x v="16"/>
     </i>
+    <i>
+      <x v="17"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -4067,19 +7617,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{946B9B36-BB5D-41C4-8504-8310D19A76CE}" name="EmployeeTable" displayName="EmployeeTable" ref="A2:D19" totalsRowShown="0">
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{946B9B36-BB5D-41C4-8504-8310D19A76CE}" name="EmployeeTable" displayName="EmployeeTable" ref="A2:H20" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D19">
+    <sortCondition ref="A3:A19"/>
+  </sortState>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AF9AE37B-5609-4999-B2C8-FD56026227EF}" name="LastName"/>
     <tableColumn id="2" xr3:uid="{D58A25C9-8662-49EE-BEB9-3FF92E60F412}" name="FirstName"/>
-    <tableColumn id="3" xr3:uid="{72631502-F715-4692-95AB-B88BCA5EA6AB}" name="Hourly wege" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3CDFC468-72A9-42A1-B3DC-CCB33A73F259}" name="01-Jan"/>
+    <tableColumn id="3" xr3:uid="{72631502-F715-4692-95AB-B88BCA5EA6AB}" name="Hourly wege" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3CDFC468-72A9-42A1-B3DC-CCB33A73F259}" name="Age"/>
+    <tableColumn id="6" xr3:uid="{844E811A-CEA1-458A-A1F7-7E36CC7AEEF0}" name="Country"/>
+    <tableColumn id="7" xr3:uid="{8EB9D71E-6700-4A6D-B049-B308EF78809E}" name="Hour"/>
+    <tableColumn id="8" xr3:uid="{00DC1C9C-533C-4D4D-B6EB-6C838A84C1A3}" name="Total Amount" dataDxfId="3">
+      <calculatedColumnFormula>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{97918E15-881B-4BB4-ACC8-311824051EA2}" name="Column1" dataDxfId="2">
+      <calculatedColumnFormula>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBFEFF8F-E584-4D2C-840D-7D2F77BB9941}" name="Table1" displayName="Table1" ref="I7:K9" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CBFEFF8F-E584-4D2C-840D-7D2F77BB9941}" name="Table1" displayName="Table1" ref="N7:P9" totalsRowCount="1">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1A0F10F1-8949-4BDA-AE8E-8FBDEEE9E01D}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{6D1228D5-77E1-4D83-82EB-9244A6FFB09F}" name="Column2"/>
@@ -4090,7 +7651,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{923D6319-168B-4ACC-B2ED-1EC03931305A}" name="Table3" displayName="Table3" ref="L14:L15" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{923D6319-168B-4ACC-B2ED-1EC03931305A}" name="Table3" displayName="Table3" ref="Q14:Q15" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{BD631C4D-C210-4937-9DA4-9ACE58D9F125}" name="01-Jan"/>
   </tableColumns>
@@ -4099,7 +7660,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0BF7F798-7E7A-4739-AAC5-5968E9906FB7}" name="Table5" displayName="Table5" ref="K22:N26" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0BF7F798-7E7A-4739-AAC5-5968E9906FB7}" name="Table5" displayName="Table5" ref="P22:S26" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{24E56F16-284B-40A5-AE2C-C5070D72F787}" name="LastName"/>
     <tableColumn id="2" xr3:uid="{A298D9C4-79E8-4403-842D-D9B34A0C3783}" name="FirstName"/>
@@ -4410,7 +7971,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4457,72 +8018,504 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C41778A-0FCF-40CE-894B-7ACCC4151919}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BF150D-B5AF-43EE-AACF-9493E78DC71A}">
+  <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE67EF4F-9BAF-4D2B-AAAF-87C2BD367D65}">
+  <dimension ref="A2:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.6328125" customWidth="1"/>
-    <col min="9" max="10" width="9.7265625" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" customWidth="1"/>
-    <col min="13" max="13" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>49</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13">
+        <v>42.199999999999996</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
+        <v>162</v>
+      </c>
+      <c r="H6" s="13">
+        <v>204.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13">
+        <v>42.199999999999996</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
+        <v>42.199999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13">
+        <v>162</v>
+      </c>
+      <c r="H8" s="13">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13">
+        <v>20.700000000000003</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
+        <v>20.700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13">
+        <v>20.700000000000003</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
+        <v>20.700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13">
+        <v>95.4</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
+        <v>95.4</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13">
+        <v>95.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13">
+        <v>114.60000000000001</v>
+      </c>
+      <c r="F13" s="13">
+        <v>88.4</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13">
+        <v>88.4</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13">
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13">
+        <v>114.60000000000001</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13">
+        <v>114.60000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="13">
+        <v>70</v>
+      </c>
+      <c r="C16" s="13">
+        <v>240</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
+        <v>315</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13">
+        <v>240</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="13">
+        <v>70</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
+        <v>315</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="13">
+        <v>70</v>
+      </c>
+      <c r="C20" s="13">
+        <v>260.7</v>
+      </c>
+      <c r="D20" s="13">
+        <v>137.6</v>
+      </c>
+      <c r="E20" s="13">
+        <v>429.6</v>
+      </c>
+      <c r="F20" s="13">
+        <v>88.4</v>
+      </c>
+      <c r="G20" s="13">
+        <v>162</v>
+      </c>
+      <c r="H20" s="13">
+        <v>1148.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C41778A-0FCF-40CE-894B-7ACCC4151919}">
+  <dimension ref="A1:V31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="87" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="16.6328125" customWidth="1"/>
+    <col min="14" max="15" width="9.7265625" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.90625" customWidth="1"/>
+    <col min="18" max="18" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4533,93 +8526,162 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="18">
+        <v>44927</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="18">
-        <v>44927</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>37</v>
+      <c r="G3" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>28.4</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>India</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="str">
+        <f>LOOKUP($K$3,EmployeeTable[LastName],EmployeeTable[FirstName])</f>
+        <v>trent</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" ref="O3:Q3">VLOOKUP(N3,EmployeeTable[#All],COLUMN($B$3:$D$3),0)</f>
+        <v>paul</v>
+      </c>
+      <c r="P3">
+        <v>6.9</v>
+      </c>
+      <c r="Q3">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>15.9</v>
-      </c>
-      <c r="D3">
+      <c r="G4" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>70</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>US</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="str">
+        <f>LOOKUP($K$4,EmployeeTable[LastName],EmployeeTable[FirstName])</f>
+        <v>tom</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.44</v>
+      </c>
+      <c r="D5">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="str" cm="1">
-        <f t="array" ref="J3:L3">VLOOKUP(I3,EmployeeTable[#All],COLUMN($B$3:$D$3),0)</f>
-        <v>paul</v>
-      </c>
-      <c r="K3">
-        <v>6.9</v>
-      </c>
-      <c r="L3">
-        <v>39</v>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>42.199999999999996</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>Canada</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="R5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>22.1</v>
-      </c>
-      <c r="D5">
-        <v>49</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4632,221 +8694,379 @@
       <c r="D6">
         <v>41</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>114.60000000000001</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>UK</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="K6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I6" t="s">
+      <c r="N6" t="s">
         <v>58</v>
       </c>
-      <c r="M6" t="s">
+      <c r="R6" t="s">
         <v>49</v>
       </c>
-      <c r="N6" t="s">
+      <c r="S6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="D7">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>70</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>Italy</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="K7">
+        <f>COUNTA(EmployeeTable[])</f>
+        <v>144</v>
+      </c>
+      <c r="N7" t="s">
         <v>39</v>
       </c>
-      <c r="F7">
-        <f>COUNTA(EmployeeTable[])</f>
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="O7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
+      <c r="P7" t="s">
         <v>41</v>
       </c>
-      <c r="M7" t="s">
+      <c r="R7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>33.599999999999994</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>Germany</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="R8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>95.4</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>India</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="K9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>315</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>US</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="K10">
+        <f>COUNTBLANK(A3:D21)</f>
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>113.6</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>Canada</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" cm="1">
+        <f t="array" ref="N11:P11">COLUMN($B$3:$D$3)</f>
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="V11" s="13">
         <v>14.2</v>
       </c>
-      <c r="D8">
-        <v>44</v>
-      </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>55</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" t="s">
-        <v>52</v>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="D12">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>88.4</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>UK</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="K12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" s="13">
+        <v>17.5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="D10">
-        <v>33</v>
-      </c>
-      <c r="F10">
-        <f>COUNTBLANK(A3:D20)</f>
-        <v>4</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2">
-        <v>14.7</v>
-      </c>
-      <c r="D11">
-        <v>29</v>
-      </c>
-      <c r="I11" cm="1">
-        <f t="array" ref="I11:K11">COLUMN($B$3:$D$3)</f>
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="M11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="2">
         <v>13.9</v>
-      </c>
-      <c r="D12">
-        <v>40</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2">
-        <v>11.2</v>
       </c>
       <c r="D13">
         <v>40</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>83.4</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>Italy</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" ref="L13">_xlfn.XLOOKUP(K13,EmployeeTable[[#All],[LastName]],EmployeeTable[[#All],[FirstName]],"Not Found")</f>
+        <v>jon</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J13">
-        <f>COUNTIF(EmployeeTable[01-Jan],D3)</f>
-        <v>6</v>
-      </c>
-      <c r="P13" s="15" t="s">
+      <c r="O13">
+        <f>COUNTIF(EmployeeTable[Age],D3)</f>
+        <v>1</v>
+      </c>
+      <c r="U13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="V13" s="13">
         <v>8.44</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
-        <v>10.1</v>
+        <v>6.9</v>
       </c>
       <c r="D14">
-        <v>40</v>
-      </c>
-      <c r="J14">
-        <f>COUNTIF(EmployeeTable[01-Jan],D4)</f>
-        <v>2</v>
-      </c>
-      <c r="L14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>Germany</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" ref="L14">_xlfn.XLOOKUP(K14,EmployeeTable[[#All],[LastName]],EmployeeTable[[#All],[FirstName]],"Not found")</f>
+        <v>paul</v>
+      </c>
+      <c r="O14">
+        <f>COUNTIF(EmployeeTable[Age],D4)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="U14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="V14" s="13">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -4859,253 +9079,426 @@
       <c r="D15">
         <v>42</v>
       </c>
-      <c r="J15">
-        <f>COUNTIF(EmployeeTable[01-Jan],D5)</f>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>54</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>India</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15">
+        <f>VLOOKUP(K15,EmployeeTable[#All],3,0)</f>
+        <v>15.9</v>
+      </c>
+      <c r="O15">
+        <f>COUNTIF(EmployeeTable[Age],D5)</f>
+        <v>6</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>240</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>US</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="O16">
+        <f>COUNTIF(EmployeeTable[Age],D6)</f>
+        <v>2</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="V16" s="13">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>162</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>Canada</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="K17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17">
+        <f>COUNTIF(EmployeeTable[Age],D7)</f>
+        <v>2</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="13">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="D18">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>29.4</v>
+      </c>
+      <c r="H18" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>UK</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="K18" t="str">
+        <f>_xlfn.CONCAT(A17," ",B17)</f>
+        <v>velinda nancy</v>
+      </c>
+      <c r="O18">
+        <f>COUNTIF(EmployeeTable[Age],D8)</f>
+        <v>6</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="V18" s="13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>40.4</v>
+      </c>
+      <c r="H19" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>Italy</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="O19">
+        <f>COUNTIF(EmployeeTable[Age],D9)</f>
+        <v>6</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="13">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="D20">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20" s="2">
+        <f>EmployeeTable[[#This Row],[Hourly wege]]*EmployeeTable[[#This Row],[Hour]]</f>
+        <v>60.599999999999994</v>
+      </c>
+      <c r="H20" s="2" t="str">
+        <f>VLOOKUP(EmployeeTable[[#This Row],[LastName]],EmployeeTable[[#All],[LastName]:[Total Amount]],5,0)</f>
+        <v>Germany</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="K20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20">
+        <f>COUNTIF(EmployeeTable[Age],D10)</f>
+        <v>2</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="13">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="P21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="13">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="P22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
         <v>1</v>
       </c>
-      <c r="L15" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>10</v>
+      <c r="R22" t="s">
+        <v>2</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U22" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V22" s="13">
+        <v>10.1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="P23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R23" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="S23">
+        <v>39</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V23" s="13">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="P24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="S24">
+        <v>33</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="P25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="S25">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="U25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V25" s="13">
         <v>30</v>
       </c>
-      <c r="C16" s="2">
-        <v>8.44</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="J16">
-        <f>COUNTIF(EmployeeTable[01-Jan],D6)</f>
-        <v>2</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>11.2</v>
-      </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2">
-        <v>14.2</v>
-      </c>
-      <c r="D17">
-        <v>40</v>
-      </c>
-      <c r="J17">
-        <f>COUNTIF(EmployeeTable[01-Jan],D7)</f>
-        <v>2</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>15.9</v>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26">
+        <f>MEDIAN(EmployeeTable[Hour])</f>
+        <v>6</v>
+      </c>
+      <c r="P26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="2">
+        <v>30</v>
+      </c>
+      <c r="S26">
+        <v>39</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="V26" s="13">
+        <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27">
+        <f>COUNT(EmployeeTable[Hour])</f>
+        <v>18</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="V27" s="13">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28">
+        <f>MAX(EmployeeTable[Total Amount])</f>
+        <v>315</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="V28" s="13">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
+        <f>MIN(EmployeeTable[Total Amount])</f>
+        <v>20.700000000000003</v>
+      </c>
+      <c r="U29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D18">
-        <v>41</v>
-      </c>
-      <c r="J18">
-        <f>COUNTIF(EmployeeTable[01-Jan],D8)</f>
-        <v>1</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>45</v>
+      <c r="V29" s="13">
+        <v>290.34000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>39</v>
-      </c>
-      <c r="J19">
-        <f>COUNTIF(EmployeeTable[01-Jan],D9)</f>
-        <v>1</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>14.2</v>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30">
+        <f>AVERAGE(EmployeeTable[Total Amount])</f>
+        <v>92.316666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="J20">
-        <f>COUNTIF(EmployeeTable[01-Jan],D10)</f>
-        <v>1</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K21" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K22" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>2</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P22" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="13">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="N23">
-        <v>39</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K24" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31">
+        <f>COUNTA(EmployeeTable[LastName])</f>
         <v>18</v>
-      </c>
-      <c r="M24" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="N24">
-        <v>33</v>
-      </c>
-      <c r="P24" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q24" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K25" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="2">
-        <v>14.7</v>
-      </c>
-      <c r="N25">
-        <v>29</v>
-      </c>
-      <c r="P25" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K26" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" t="s">
-        <v>36</v>
-      </c>
-      <c r="M26" s="2">
-        <v>30</v>
-      </c>
-      <c r="N26">
-        <v>39</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="13">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="P27" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="13">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="P28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q28" s="13">
-        <v>280.24000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -5122,12 +9515,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D2B65F-9A60-4656-AC87-8BBDF67ACEE5}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5440,6 +9833,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
